--- a/CMS-research.xlsx
+++ b/CMS-research.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophia/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFF2C38C-5392-1942-9AA6-DC7C86A5D58C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FAE39D45-E36A-6B49-A793-724B6BD38FFB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="16340" xr2:uid="{DF5BC12E-0311-294C-A494-566D207770CA}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="56">
   <si>
     <t>Should support SEO, structured content, tagging, and metadata</t>
   </si>
@@ -75,9 +75,6 @@
     <t>WordPress.org</t>
   </si>
   <si>
-    <t>WordPress</t>
-  </si>
-  <si>
     <t>Yes - forms</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>Liferay</t>
   </si>
   <si>
-    <t>Liferay Portal (ENTERPRISE SOLUTION ONLY)</t>
-  </si>
-  <si>
     <t>Yes "Liquid Content"</t>
   </si>
   <si>
@@ -190,6 +184,15 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>WordPress - https://en.wordpress.com/features/</t>
+  </si>
+  <si>
+    <t>concrete5 - https://www.concrete5.org/</t>
+  </si>
+  <si>
+    <t>Liferay Portal (ENTERPRISE SOLUTION ONLY) - https://www.liferay.com/product/features</t>
   </si>
 </sst>
 </file>
@@ -612,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E87D328C-1C90-E840-86C3-A80E4F63B9E9}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19"/>
@@ -637,66 +640,66 @@
   <sheetData>
     <row r="1" spans="1:16" s="10" customFormat="1" ht="38">
       <c r="A1" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M1" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N1" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="127" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>9</v>
@@ -705,7 +708,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="2" t="s">
@@ -716,13 +719,13 @@
         <v>9</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>9</v>
@@ -733,16 +736,16 @@
     </row>
     <row r="3" spans="1:16" ht="114">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>9</v>
@@ -764,7 +767,7 @@
       </c>
       <c r="M3" s="6"/>
       <c r="N3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>9</v>
@@ -775,16 +778,16 @@
     </row>
     <row r="4" spans="1:16" ht="114">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>9</v>
@@ -793,7 +796,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="2" t="s">
@@ -810,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>9</v>
@@ -821,16 +824,16 @@
     </row>
     <row r="5" spans="1:16" ht="133">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>9</v>
@@ -839,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H5" s="7"/>
       <c r="J5" s="6"/>
@@ -847,7 +850,7 @@
     </row>
     <row r="6" spans="1:16" ht="190">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>15</v>
